--- a/balancers_table.xlsx
+++ b/balancers_table.xlsx
@@ -62,7 +62,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -89,11 +89,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -138,21 +133,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -187,10 +174,10 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.33"/>
@@ -209,58 +196,58 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="4" t="n">
-        <v>2</v>
+      <c r="C5" s="2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
